--- a/main project excel sheet updated.xlsx
+++ b/main project excel sheet updated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DAILY ROUTINE</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>Modules were designed</t>
+  </si>
+  <si>
+    <t>Register,login page were designed. The overall website flow was drawn</t>
+  </si>
+  <si>
+    <t>Web pages related to the project was done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data flow diagram for the project was drawn </t>
+  </si>
+  <si>
+    <t>Data flow,front screens for admin,faculty and student was drawn using html and css</t>
   </si>
 </sst>
 </file>
@@ -401,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -481,6 +493,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>43781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>43811</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/main project excel sheet updated.xlsx
+++ b/main project excel sheet updated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>DAILY ROUTINE</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Data flow,front screens for admin,faculty and student was drawn using html and css</t>
+  </si>
+  <si>
+    <t>13/12/2019</t>
+  </si>
+  <si>
+    <t>The screens for modules were started</t>
+  </si>
+  <si>
+    <t>Modules were drawn and designing is started</t>
   </si>
 </sst>
 </file>
@@ -413,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -520,6 +529,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/main project excel sheet updated.xlsx
+++ b/main project excel sheet updated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>DAILY ROUTINE</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>Modules were drawn and designing is started</t>
+  </si>
+  <si>
+    <t>16/12/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mock review was conducted. </t>
+  </si>
+  <si>
+    <t>Changes were made to the document accordingly based on the review</t>
   </si>
 </sst>
 </file>
@@ -422,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D31" sqref="D30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -540,6 +549,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/main project excel sheet updated.xlsx
+++ b/main project excel sheet updated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>DAILY ROUTINE</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>Changes were made to the document accordingly based on the review</t>
+  </si>
+  <si>
+    <t>17/12/2019</t>
+  </si>
+  <si>
+    <t>dfd and changes in document was made</t>
+  </si>
+  <si>
+    <t>dfd</t>
   </si>
 </sst>
 </file>
@@ -434,7 +443,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D30:D31"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -557,12 +566,18 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/main project excel sheet updated.xlsx
+++ b/main project excel sheet updated.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="7995"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>DAILY ROUTINE</t>
   </si>
@@ -94,13 +94,40 @@
   </si>
   <si>
     <t>dfd</t>
+  </si>
+  <si>
+    <t>18/12/2019</t>
+  </si>
+  <si>
+    <t>table design for project was done</t>
+  </si>
+  <si>
+    <t>19/12/2019</t>
+  </si>
+  <si>
+    <t>the screens for modules were started</t>
+  </si>
+  <si>
+    <t>learned new concepts such as data strucure,technolgies,full stack developer,domain</t>
+  </si>
+  <si>
+    <t>20/12/2019</t>
+  </si>
+  <si>
+    <t>brush up of java concepts,jsp</t>
+  </si>
+  <si>
+    <t>23/12/2019</t>
+  </si>
+  <si>
+    <t>went through oops concepts such as polymorphism,encapsulation,classes etc……</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +257,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -264,6 +292,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,14 +468,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="109.7109375" customWidth="1"/>
@@ -454,7 +483,7 @@
     <col min="4" max="4" width="68.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -468,7 +497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43508</v>
       </c>
@@ -479,7 +508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43536</v>
       </c>
@@ -490,7 +519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43567</v>
       </c>
@@ -501,7 +530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43597</v>
       </c>
@@ -509,7 +538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43720</v>
       </c>
@@ -520,7 +549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43750</v>
       </c>
@@ -531,12 +560,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43781</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43811</v>
       </c>
@@ -547,7 +576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -558,7 +587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -569,7 +598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -578,6 +607,44 @@
       </c>
       <c r="C12" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -587,24 +654,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/main project excel sheet updated.xlsx
+++ b/main project excel sheet updated.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="7995"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>DAILY ROUTINE</t>
   </si>
@@ -94,40 +94,13 @@
   </si>
   <si>
     <t>dfd</t>
-  </si>
-  <si>
-    <t>18/12/2019</t>
-  </si>
-  <si>
-    <t>table design for project was done</t>
-  </si>
-  <si>
-    <t>19/12/2019</t>
-  </si>
-  <si>
-    <t>the screens for modules were started</t>
-  </si>
-  <si>
-    <t>learned new concepts such as data strucure,technolgies,full stack developer,domain</t>
-  </si>
-  <si>
-    <t>20/12/2019</t>
-  </si>
-  <si>
-    <t>brush up of java concepts,jsp</t>
-  </si>
-  <si>
-    <t>23/12/2019</t>
-  </si>
-  <si>
-    <t>went through oops concepts such as polymorphism,encapsulation,classes etc……</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,7 +230,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -292,7 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,14 +439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="109.7109375" customWidth="1"/>
@@ -483,7 +454,7 @@
     <col min="4" max="4" width="68.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -497,7 +468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="1">
         <v>43508</v>
       </c>
@@ -508,7 +479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1">
       <c r="A3" s="1">
         <v>43536</v>
       </c>
@@ -519,7 +490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>43567</v>
       </c>
@@ -530,7 +501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>43597</v>
       </c>
@@ -538,7 +509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>43720</v>
       </c>
@@ -549,7 +520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>43750</v>
       </c>
@@ -560,12 +531,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>43781</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>43811</v>
       </c>
@@ -576,7 +547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -587,7 +558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -598,7 +569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -607,44 +578,6 @@
       </c>
       <c r="C12" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -654,24 +587,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/main project excel sheet updated.xlsx
+++ b/main project excel sheet updated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>DAILY ROUTINE</t>
   </si>
@@ -94,6 +94,132 @@
   </si>
   <si>
     <t>dfd</t>
+  </si>
+  <si>
+    <t>18/12/2019</t>
+  </si>
+  <si>
+    <t>19/12/2019</t>
+  </si>
+  <si>
+    <t>20/12/2019</t>
+  </si>
+  <si>
+    <t>21/12/2019</t>
+  </si>
+  <si>
+    <t>22/12/2019</t>
+  </si>
+  <si>
+    <t>23/12/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6/1/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8/1/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9/1/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/1/2020</t>
+  </si>
+  <si>
+    <t>20/1/2020</t>
+  </si>
+  <si>
+    <t>22/1/2020</t>
+  </si>
+  <si>
+    <t>design the home page</t>
+  </si>
+  <si>
+    <t>edit the document</t>
+  </si>
+  <si>
+    <t>full stack management</t>
+  </si>
+  <si>
+    <t>design ui</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prepare for first review </t>
+  </si>
+  <si>
+    <t>basic java concepts</t>
+  </si>
+  <si>
+    <t>java concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">design the front page </t>
+  </si>
+  <si>
+    <t>design the navigation</t>
+  </si>
+  <si>
+    <t>design the test concept</t>
+  </si>
+  <si>
+    <t>navigation</t>
+  </si>
+  <si>
+    <t>23/1/2020</t>
+  </si>
+  <si>
+    <t>24/1/2020</t>
+  </si>
+  <si>
+    <t>27/1/2020</t>
+  </si>
+  <si>
+    <t>28/1/2020</t>
+  </si>
+  <si>
+    <t>29/1/2020</t>
+  </si>
+  <si>
+    <t>30/1/2020</t>
+  </si>
+  <si>
+    <t>31/1/2020</t>
+  </si>
+  <si>
+    <t>DAO</t>
+  </si>
+  <si>
+    <t>corrected errors in DAO</t>
+  </si>
+  <si>
+    <t>Did dao implementation</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>main controller</t>
+  </si>
+  <si>
+    <t>created mode</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>insert statement</t>
+  </si>
+  <si>
+    <t>jdbc</t>
+  </si>
+  <si>
+    <t>localhost run</t>
+  </si>
+  <si>
+    <t>corrected errors in project</t>
   </si>
 </sst>
 </file>
@@ -440,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -578,6 +704,206 @@
       </c>
       <c r="C12" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/main project excel sheet updated.xlsx
+++ b/main project excel sheet updated.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>DAILY ROUTINE</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>DOCUMENT</t>
   </si>
   <si>
@@ -220,6 +217,39 @@
   </si>
   <si>
     <t>corrected errors in project</t>
+  </si>
+  <si>
+    <t>13/2/2020</t>
+  </si>
+  <si>
+    <t>14/2/2020</t>
+  </si>
+  <si>
+    <t>17/2/2020</t>
+  </si>
+  <si>
+    <t>18/2/2020</t>
+  </si>
+  <si>
+    <t>19/2/2020</t>
+  </si>
+  <si>
+    <t>20/2/2020</t>
+  </si>
+  <si>
+    <t>21/2/2020</t>
+  </si>
+  <si>
+    <t>24/2/2020</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>project connectivity</t>
+  </si>
+  <si>
+    <t>java script</t>
   </si>
 </sst>
 </file>
@@ -566,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -581,17 +611,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
@@ -599,10 +627,10 @@
         <v>43508</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1">
@@ -610,10 +638,10 @@
         <v>43536</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -621,10 +649,10 @@
         <v>43567</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -632,7 +660,7 @@
         <v>43597</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -640,10 +668,10 @@
         <v>43720</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -651,10 +679,10 @@
         <v>43750</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -667,91 +695,91 @@
         <v>43811</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -759,15 +787,15 @@
         <v>43862</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -775,103 +803,103 @@
         <v>44013</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -879,7 +907,7 @@
         <v>43892</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -887,7 +915,7 @@
         <v>43923</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -895,7 +923,7 @@
         <v>43953</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -903,8 +931,104 @@
         <v>43984</v>
       </c>
       <c r="B37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
